--- a/biology/Zoologie/Episcada_ticidella/Episcada_ticidella.xlsx
+++ b/biology/Zoologie/Episcada_ticidella/Episcada_ticidella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada ticidella est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Episcada ticidella a été décrit par William Chapman Hewitson en 1869 sous le nom initial d' Ithomia ticidella[1].
-Sous-espèces
-Episcada ticidella ticidella; présent en Équateur.
-Episcada ticidella ssp; présent au Pérou.
-Episcada ticidella ssp; présent au Pérou</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada ticidella a été décrit par William Chapman Hewitson en 1869 sous le nom initial d' Ithomia ticidella.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada ticidella est un papillon d'une envergure d'environ 50 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne très concave[2].
-Les ailes sont transparentes avec de très fines veines et une bordure marron ocre doré sur le dessus comme sur le revers.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada ticidella ticidella; présent en Équateur.
+Episcada ticidella ssp; présent au Pérou.
+Episcada ticidella ssp; présent au Pérou</t>
         </is>
       </c>
     </row>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada ticidella est un papillon d'une envergure d'environ 50 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne très concave.
+Les ailes sont transparentes avec de très fines veines et une bordure marron ocre doré sur le dessus comme sur le revers.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,15 +625,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_ticidella</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_ticidella</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada ticidella est présent en Équateur et au Pérou[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada ticidella est présent en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_ticidella</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_ticidella</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada ticidella, sur Wikimedia CommonsEpiscada ticidella, sur Wikispecies
 </t>
